--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value393.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value393.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.360715601688448</v>
+        <v>1.197734951972961</v>
       </c>
       <c r="B1">
-        <v>1.525289681996711</v>
+        <v>3.403714895248413</v>
       </c>
       <c r="C1">
-        <v>1.574000694268981</v>
+        <v>2.617115259170532</v>
       </c>
       <c r="D1">
-        <v>2.055231997044918</v>
+        <v>2.412417650222778</v>
       </c>
       <c r="E1">
-        <v>2.678715829368119</v>
+        <v>1.988042593002319</v>
       </c>
     </row>
   </sheetData>
